--- a/dados/Vendas por Produto - GERAL.xlsx
+++ b/dados/Vendas por Produto - GERAL.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>CODFILIAL</t>
   </si>
@@ -111,12 +111,6 @@
     <t>ATADURA DE CREPE 13 FIOS 12 X 1,20  PCT 12  HOSPITALAR C</t>
   </si>
   <si>
-    <t>480</t>
-  </si>
-  <si>
-    <t>ATADURA DE CREPE 13 FIOS 12 X 1,20  PCT 12 FARMA C</t>
-  </si>
-  <si>
     <t>1662</t>
   </si>
   <si>
@@ -138,12 +132,6 @@
     <t>ATADURA DE CREPE 13 FIOS 15 X 1,20  PCT 12  HOSPITALAR C</t>
   </si>
   <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATADURA DE CREPE 13 FIOS 15 X 1,20  PCT 12 FARMA C </t>
-  </si>
-  <si>
     <t>421</t>
   </si>
   <si>
@@ -303,12 +291,6 @@
     <t xml:space="preserve">GAZE ESTÉRIL 09 FIOS - PCT 10 UND </t>
   </si>
   <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAZE ESTERIL 11 FIOS PCT 10 UND </t>
-  </si>
-  <si>
     <t xml:space="preserve">GAZE ESTÉRIL 11FIOS - PCT 10 UND </t>
   </si>
   <si>
@@ -345,12 +327,15 @@
     <t>GAZE NAO ESTÉRIL 09 FIOS I</t>
   </si>
   <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAZE NAO ESTÉRIL 11 FIOS </t>
+  </si>
+  <si>
     <t>23</t>
   </si>
   <si>
-    <t xml:space="preserve">GAZE NAO ESTÉRIL 11 FIOS </t>
-  </si>
-  <si>
     <t>63</t>
   </si>
   <si>
@@ -373,6 +358,9 @@
   </si>
   <si>
     <t xml:space="preserve">GAZE NAO ESTÉRIL 13 FIOS </t>
+  </si>
+  <si>
+    <t>326</t>
   </si>
   <si>
     <t>349</t>
@@ -557,7 +545,7 @@
   <sheetPr>
     <outlinePr summaryBelow="true" summaryRight="true"/>
   </sheetPr>
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showZeros="true" showFormulas="false" showGridLines="true" showRowColHeaders="true">
       <selection sqref="A1" activeCell="A1"/>
@@ -851,19 +839,19 @@
         <v>20</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>4.91</v>
+        <v>7.92</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>540.1</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="10" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -871,10 +859,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>19</v>
@@ -883,19 +871,19 @@
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>400</v>
+        <v>1288</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>7.92</v>
+        <v>6.7394</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>3168</v>
+        <v>8680.32</v>
       </c>
     </row>
     <row r="11" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -921,13 +909,13 @@
         <v>21</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1288</v>
+        <v>7210</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>6.7394</v>
+        <v>5.3169</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>8680.32</v>
+        <v>38334.8</v>
       </c>
     </row>
     <row r="12" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -953,13 +941,13 @@
         <v>21</v>
       </c>
       <c r="H12" s="4" t="n">
-        <v>7210</v>
+        <v>60</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>5.3169</v>
+        <v>9.24</v>
       </c>
       <c r="J12" s="4" t="n">
-        <v>38334.8</v>
+        <v>554.4</v>
       </c>
     </row>
     <row r="13" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -985,13 +973,13 @@
         <v>21</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>360</v>
+        <v>3360</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>5.63</v>
+        <v>7.4156</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>2026.8</v>
+        <v>24916.5</v>
       </c>
     </row>
     <row r="14" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1017,13 +1005,13 @@
         <v>21</v>
       </c>
       <c r="H14" s="4" t="n">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>9.24</v>
+        <v>4.61</v>
       </c>
       <c r="J14" s="4" t="n">
-        <v>554.4</v>
+        <v>1613.5</v>
       </c>
     </row>
     <row r="15" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1049,13 +1037,13 @@
         <v>21</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3360</v>
+        <v>4732</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7.4156</v>
+        <v>7.1327</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>24916.5</v>
+        <v>33752.16</v>
       </c>
     </row>
     <row r="16" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1081,13 +1069,13 @@
         <v>21</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>350</v>
+        <v>2880</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>4.61</v>
+        <v>9.104</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>1613.5</v>
+        <v>26219.4</v>
       </c>
     </row>
     <row r="17" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1113,13 +1101,13 @@
         <v>21</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>3900</v>
+        <v>250</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>7.1632</v>
+        <v>10.74</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>27936.48</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="18" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1145,13 +1133,13 @@
         <v>21</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>2880</v>
+        <v>560</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>9.104</v>
+        <v>14.89</v>
       </c>
       <c r="J18" s="4" t="n">
-        <v>26219.4</v>
+        <v>8338.4</v>
       </c>
     </row>
     <row r="19" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1171,19 +1159,19 @@
         <v>20</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>250</v>
+        <v>560</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>10.74</v>
+        <v>9.5786</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>2685</v>
+        <v>5364.016</v>
       </c>
     </row>
     <row r="20" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1209,13 +1197,13 @@
         <v>21</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>560</v>
+        <v>350</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>14.89</v>
+        <v>9.37</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>8338.4</v>
+        <v>3279.5</v>
       </c>
     </row>
     <row r="21" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1235,19 +1223,19 @@
         <v>20</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>560</v>
+        <v>240</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>9.5786</v>
+        <v>12.03</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>5364.016</v>
+        <v>2887.2</v>
       </c>
     </row>
     <row r="22" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1273,13 +1261,13 @@
         <v>21</v>
       </c>
       <c r="H22" s="4" t="n">
-        <v>350</v>
+        <v>10200</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>9.37</v>
+        <v>2.5</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>3279.5</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="23" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1299,19 +1287,19 @@
         <v>20</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>240</v>
+        <v>27750</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>12.03</v>
+        <v>4.6606</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2887.2</v>
+        <v>129333</v>
       </c>
     </row>
     <row r="24" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1331,19 +1319,19 @@
         <v>20</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H24" s="4" t="n">
-        <v>2100</v>
+        <v>1050</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>2.5</v>
+        <v>5.09</v>
       </c>
       <c r="J24" s="4" t="n">
-        <v>5250</v>
+        <v>5344.5</v>
       </c>
     </row>
     <row r="25" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1351,10 +1339,10 @@
         <v>10</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>19</v>
@@ -1369,13 +1357,13 @@
         <v>21</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>25650</v>
+        <v>1200</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>4.6615</v>
+        <v>4.13</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>119568</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="26" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1383,10 +1371,10 @@
         <v>10</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>19</v>
@@ -1395,19 +1383,19 @@
         <v>20</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>1050</v>
+        <v>3084</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>5.09</v>
+        <v>43.4588</v>
       </c>
       <c r="J26" s="4" t="n">
-        <v>5344.5</v>
+        <v>134026.8</v>
       </c>
     </row>
     <row r="27" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1427,19 +1415,19 @@
         <v>20</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1200</v>
+        <v>1512</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>4.13</v>
+        <v>42.1286</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>4956</v>
+        <v>63698.4</v>
       </c>
     </row>
     <row r="28" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1459,19 +1447,19 @@
         <v>20</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H28" s="4" t="n">
-        <v>2772</v>
+        <v>2016</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>43.8632</v>
+        <v>12.3</v>
       </c>
       <c r="J28" s="4" t="n">
-        <v>121588.8</v>
+        <v>24796.8</v>
       </c>
     </row>
     <row r="29" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1491,19 +1479,19 @@
         <v>20</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>1512</v>
+        <v>2376</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>42.1286</v>
+        <v>13.8236</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>63698.4</v>
+        <v>32844.96</v>
       </c>
     </row>
     <row r="30" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1514,7 +1502,7 @@
         <v>76</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>19</v>
@@ -1523,19 +1511,19 @@
         <v>20</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H30" s="4" t="n">
-        <v>2016</v>
+        <v>1000</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>12.3</v>
+        <v>18.85</v>
       </c>
       <c r="J30" s="4" t="n">
-        <v>24796.8</v>
+        <v>18850</v>
       </c>
     </row>
     <row r="31" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1543,11 +1531,11 @@
         <v>10</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="D31" s="5" t="s">
         <v>19</v>
       </c>
@@ -1555,19 +1543,19 @@
         <v>20</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>2376</v>
+        <v>2040</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>13.8236</v>
+        <v>14.5</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>32844.96</v>
+        <v>29580</v>
       </c>
     </row>
     <row r="32" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1575,11 +1563,11 @@
         <v>10</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="D32" s="3" t="s">
         <v>19</v>
       </c>
@@ -1587,19 +1575,19 @@
         <v>20</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H32" s="4" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>18.85</v>
+        <v>24.64</v>
       </c>
       <c r="J32" s="4" t="n">
-        <v>18850</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="33" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1619,19 +1607,19 @@
         <v>20</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2040</v>
+        <v>1800</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>29580</v>
+        <v>32400</v>
       </c>
     </row>
     <row r="34" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1651,19 +1639,19 @@
         <v>20</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H34" s="4" t="n">
-        <v>100</v>
+        <v>5004</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>24.64</v>
+        <v>11.99</v>
       </c>
       <c r="J34" s="4" t="n">
-        <v>2464</v>
+        <v>59997.96</v>
       </c>
     </row>
     <row r="35" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1683,19 +1671,19 @@
         <v>20</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1830</v>
+        <v>1500</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>18.0141</v>
+        <v>13.5</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>32965.8</v>
+        <v>20250</v>
       </c>
     </row>
     <row r="36" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1715,19 +1703,19 @@
         <v>20</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H36" s="4" t="n">
-        <v>5004</v>
+        <v>1620</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>11.99</v>
+        <v>15.4433</v>
       </c>
       <c r="J36" s="4" t="n">
-        <v>59997.96</v>
+        <v>25018.2</v>
       </c>
     </row>
     <row r="37" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1753,13 +1741,13 @@
         <v>21</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>1500</v>
+        <v>20</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>13.5</v>
+        <v>39.53</v>
       </c>
       <c r="J37" s="6" t="n">
-        <v>20250</v>
+        <v>790.6</v>
       </c>
     </row>
     <row r="38" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1767,11 +1755,11 @@
         <v>10</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="D38" s="3" t="s">
         <v>19</v>
       </c>
@@ -1779,19 +1767,19 @@
         <v>20</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1620</v>
+        <v>229000</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>15.4433</v>
+        <v>0.3548</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>25018.2</v>
+        <v>81240</v>
       </c>
     </row>
     <row r="39" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1799,10 +1787,10 @@
         <v>10</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>19</v>
@@ -1811,19 +1799,19 @@
         <v>20</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>20</v>
+        <v>442000</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>39.53</v>
+        <v>0.379</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>790.6</v>
+        <v>167524</v>
       </c>
     </row>
     <row r="40" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1831,10 +1819,10 @@
         <v>10</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>19</v>
@@ -1843,19 +1831,19 @@
         <v>20</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>201000</v>
+        <v>13000</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>0.3557</v>
+        <v>0.49</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>71500</v>
+        <v>6370</v>
       </c>
     </row>
     <row r="41" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1863,10 +1851,10 @@
         <v>10</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>19</v>
@@ -1875,19 +1863,19 @@
         <v>20</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>40000</v>
+        <v>676000</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.4171</v>
+        <v>0.3744</v>
       </c>
       <c r="J41" s="6" t="n">
-        <v>16684</v>
+        <v>253120</v>
       </c>
     </row>
     <row r="42" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1895,10 +1883,10 @@
         <v>10</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>19</v>
@@ -1907,19 +1895,19 @@
         <v>20</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>342000</v>
+        <v>9792</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>0.3758</v>
+        <v>6.4043</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>128540</v>
+        <v>62711.28</v>
       </c>
     </row>
     <row r="43" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1927,11 +1915,11 @@
         <v>10</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="D43" s="5" t="s">
         <v>19</v>
       </c>
@@ -1945,13 +1933,13 @@
         <v>21</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>13000</v>
+        <v>1520</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.49</v>
+        <v>14.0263</v>
       </c>
       <c r="J43" s="6" t="n">
-        <v>6370</v>
+        <v>21320</v>
       </c>
     </row>
     <row r="44" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1959,7 +1947,7 @@
         <v>10</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>101</v>
@@ -1971,19 +1959,19 @@
         <v>20</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>666000</v>
+        <v>-120</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>0.3738</v>
+        <v>11.44</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>248920</v>
+        <v>-1372.8</v>
       </c>
     </row>
     <row r="45" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -2003,19 +1991,19 @@
         <v>20</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>9720</v>
+        <v>600</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>6.3969</v>
+        <v>10.4067</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>62177.76</v>
+        <v>6244</v>
       </c>
     </row>
     <row r="46" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -2035,19 +2023,19 @@
         <v>20</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1520</v>
+        <v>120</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>14.0263</v>
+        <v>10.32</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>21320</v>
+        <v>1238.4</v>
       </c>
     </row>
     <row r="47" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -2058,7 +2046,7 @@
         <v>106</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>19</v>
@@ -2067,19 +2055,19 @@
         <v>20</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>-120</v>
+        <v>300</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>11.44</v>
+        <v>9.74</v>
       </c>
       <c r="J47" s="6" t="n">
-        <v>-1372.8</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="48" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -2087,11 +2075,11 @@
         <v>10</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="D48" s="3" t="s">
         <v>19</v>
       </c>
@@ -2099,19 +2087,19 @@
         <v>20</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>10.4067</v>
+        <v>15</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>6244</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="49" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -2119,11 +2107,11 @@
         <v>10</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="D49" s="5" t="s">
         <v>19</v>
       </c>
@@ -2131,19 +2119,19 @@
         <v>20</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>9.74</v>
+        <v>19.9</v>
       </c>
       <c r="J49" s="6" t="n">
-        <v>2922</v>
+        <v>636.8</v>
       </c>
     </row>
     <row r="50" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -2151,11 +2139,11 @@
         <v>10</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="D50" s="3" t="s">
         <v>19</v>
       </c>
@@ -2163,19 +2151,19 @@
         <v>20</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>7200</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="51" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -2183,11 +2171,11 @@
         <v>10</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="D51" s="5" t="s">
         <v>19</v>
       </c>
@@ -2195,19 +2183,19 @@
         <v>20</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>32</v>
+        <v>1008</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>19.9</v>
+        <v>7.4</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>636.8</v>
+        <v>7459.2</v>
       </c>
     </row>
     <row r="52" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -2215,10 +2203,10 @@
         <v>10</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>19</v>
@@ -2227,19 +2215,19 @@
         <v>20</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>17.5</v>
+        <v>12.56</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>2100</v>
+        <v>628</v>
       </c>
     </row>
     <row r="53" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -2247,10 +2235,10 @@
         <v>10</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>19</v>
@@ -2259,19 +2247,19 @@
         <v>20</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>1008</v>
+        <v>640</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>7.4</v>
+        <v>17.849</v>
       </c>
       <c r="J53" s="6" t="n">
-        <v>7459.2</v>
+        <v>11423.36</v>
       </c>
     </row>
     <row r="54" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -2279,10 +2267,10 @@
         <v>10</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>19</v>
@@ -2297,13 +2285,13 @@
         <v>21</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>640</v>
+        <v>224</v>
       </c>
       <c r="I54" s="4" t="n">
-        <v>17.849</v>
+        <v>13.1</v>
       </c>
       <c r="J54" s="4" t="n">
-        <v>11423.36</v>
+        <v>2934.4</v>
       </c>
     </row>
     <row r="55" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -2311,10 +2299,10 @@
         <v>10</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>19</v>
@@ -2323,19 +2311,19 @@
         <v>20</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>224</v>
+        <v>800</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="J55" s="6" t="n">
-        <v>2934.4</v>
+        <v>10560</v>
       </c>
     </row>
     <row r="56" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -2343,10 +2331,10 @@
         <v>10</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>19</v>
@@ -2355,69 +2343,37 @@
         <v>20</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H56" s="4" t="n">
-        <v>800</v>
+        <v>2016</v>
       </c>
       <c r="I56" s="4" t="n">
-        <v>13.2</v>
+        <v>6.99</v>
       </c>
       <c r="J56" s="4" t="n">
-        <v>10560</v>
-      </c>
-    </row>
-    <row r="57" customHeight="true" ht="16.5" customFormat="true" s="1">
-      <c r="A57" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H57" s="6" t="n">
-        <v>2016</v>
-      </c>
-      <c r="I57" s="6" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="J57" s="6" t="n">
         <v>14091.84</v>
       </c>
     </row>
-    <row r="58" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A58" s="7"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="9" t="n">
-        <v>1366077.75</v>
-      </c>
-      <c r="I58" s="9" t="n">
-        <v>643.9442</v>
-      </c>
-      <c r="J58" s="9" t="n">
-        <v>1442519.876</v>
+    <row r="57" customHeight="true" ht="13.5" customFormat="true" s="1">
+      <c r="A57" s="7"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="9" t="n">
+        <v>1475163.75</v>
+      </c>
+      <c r="I57" s="9" t="n">
+        <v>655.4275</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>1526295.776</v>
       </c>
     </row>
   </sheetData>

--- a/dados/Vendas por Produto - GERAL.xlsx
+++ b/dados/Vendas por Produto - GERAL.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>CODFILIAL</t>
   </si>
@@ -63,24 +63,30 @@
     <t>ULTRA TEXTIL</t>
   </si>
   <si>
-    <t>KG</t>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>1589</t>
+  </si>
+  <si>
+    <t>ATADURA DE CREPE 13 FIOS 10 X 1,20  PCT 12 FARMA C</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>PRODUTO FINAL</t>
+  </si>
+  <si>
+    <t>MED MAIS</t>
+  </si>
+  <si>
+    <t>PC</t>
   </si>
   <si>
     <t>163</t>
   </si>
   <si>
-    <t>ATADURA DE CREPE 13 FIOS 10 X 1,20  PCT 12 FARMA C</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>PRODUTO FINAL</t>
-  </si>
-  <si>
-    <t>PC</t>
-  </si>
-  <si>
     <t>414</t>
   </si>
   <si>
@@ -99,10 +105,10 @@
     <t>ATADURA DE CREPE 13 FIOS 10 X 1,80  PCT 12   HOSPITALAR C</t>
   </si>
   <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>ATADURA DE CREPE 13 FIOS 10 X 1,80  PCT 12 FARMA E</t>
+    <t>1595</t>
+  </si>
+  <si>
+    <t>ATADURA DE CREPE 13 FIOS 10 X 1,80  PCT 12 - FARMA C</t>
   </si>
   <si>
     <t>476</t>
@@ -111,93 +117,108 @@
     <t>ATADURA DE CREPE 13 FIOS 12 X 1,20  PCT 12  HOSPITALAR C</t>
   </si>
   <si>
-    <t>1662</t>
-  </si>
-  <si>
-    <t>ATADURA DE CREPE 13 FIOS 12 X 1,80  PCT 12</t>
+    <t>480</t>
+  </si>
+  <si>
+    <t>ATADURA DE CREPE 13 FIOS 12 X 1,20  PCT 12 FARMA C</t>
+  </si>
+  <si>
+    <t>1590</t>
+  </si>
+  <si>
+    <t>474</t>
+  </si>
+  <si>
+    <t>ATADURA DE CREPE 13 FIOS 12 X 1,80  PCT 12  HOSPITALAR C</t>
+  </si>
+  <si>
+    <t>1596</t>
+  </si>
+  <si>
+    <t>ATADURA DE CREPE 13 FIOS 12 X 1,80  PCT 12 FARMA C</t>
+  </si>
+  <si>
+    <t>419</t>
+  </si>
+  <si>
+    <t>ATADURA DE CREPE 13 FIOS 15 X 1,20  PCT 12  HOSPITALAR C</t>
+  </si>
+  <si>
+    <t>1592</t>
+  </si>
+  <si>
+    <t>ATADURA DE CREPE 13 FIOS 15 X 1,20  PCT 12 FARMA C</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATADURA DE CREPE 13 FIOS 15 X 1,20  PCT 12 FARMA C </t>
+  </si>
+  <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>ATADURA DE CREPE 13 FIOS 15 X 1,80  PCT 12   HOSPITALAR C</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>ATADURA DE CREPE 13 FIOS 15 X 1,80  PCT 12  FARMA C</t>
+  </si>
+  <si>
+    <t>1597</t>
+  </si>
+  <si>
+    <t>ATADURA DE CREPE 13 FIOS 15 X 1,80  PCT 12 FARMA C</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>ATADURA DE CREPE 13 FIOS 20 X 1,20  PCT 12  HOSPITALAR C</t>
+  </si>
+  <si>
+    <t>1593</t>
+  </si>
+  <si>
+    <t>ATADURA DE CREPE 13 FIOS 20 X 1,20  PCT 12 FARMA C</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>ATADURA DE CREPE 13 FIOS 20 X 1,80  PCT 12   HOSPITALAR C</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATADURA DE CREPE 13 FIOS 20 X 1,80  PCT 12  FARMA C </t>
+  </si>
+  <si>
+    <t>1598</t>
+  </si>
+  <si>
+    <t>ATADURA DE CREPE 13 FIOS 20 X 1,80  PCT 12 FARMA C</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>ATADURA DE CREPE 13 FIOS 30 X 1,80  PCT 12 FARMA C</t>
+  </si>
+  <si>
+    <t>1663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATADURA DE CREPE13 FIOS 15 X 1,80  PCT 12 </t>
   </si>
   <si>
     <t>MED TEXTIL</t>
   </si>
   <si>
-    <t>478</t>
-  </si>
-  <si>
-    <t>ATADURA DE CREPE 13 FIOS 12 X 1,80  PCT 12 FARMA C</t>
-  </si>
-  <si>
-    <t>419</t>
-  </si>
-  <si>
-    <t>ATADURA DE CREPE 13 FIOS 15 X 1,20  PCT 12  HOSPITALAR C</t>
-  </si>
-  <si>
-    <t>421</t>
-  </si>
-  <si>
-    <t>ATADURA DE CREPE 13 FIOS 15 X 1,80  PCT 12   HOSPITALAR C</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>ATADURA DE CREPE 13 FIOS 15 X 1,80  PCT 12  FARMA C</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATADURA DE CREPE 13 FIOS 20 X 1,20  PCT 12  FARMA C </t>
-  </si>
-  <si>
-    <t>423</t>
-  </si>
-  <si>
-    <t>ATADURA DE CREPE 13 FIOS 20 X 1,20  PCT 12  HOSPITALAR C</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATADURA DE CREPE 13 FIOS 20 X 1,80  PCT 12  FARMA C </t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>ATADURA DE CREPE 13 FIOS 30 X 1,20  PCT 12  FARMA C</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>ATADURA DE CREPE 13 FIOS 30 X 1,80  PCT 12 FARMA C</t>
-  </si>
-  <si>
-    <t>1663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATADURA DE CREPE13 FIOS 15 X 1,80  PCT 12 </t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>ATADURA DE CREPE13 FIOS 15 X 1,80  PCT 12 FARMA E</t>
-  </si>
-  <si>
-    <t>1664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATADURA DE CREPE13 FIOS 20 X 1,80  PCT 12 </t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>CAMPO OPERATORIO ESTERIL 25X28 - PCT 2 UND</t>
-  </si>
-  <si>
     <t>158</t>
   </si>
   <si>
@@ -210,13 +231,10 @@
     <t xml:space="preserve">CAMPO OPERATORIO ESTERIL 25X28 - PCT 5 UND </t>
   </si>
   <si>
-    <t>MED MAIS</t>
-  </si>
-  <si>
-    <t>434</t>
-  </si>
-  <si>
-    <t>CAMPO OPERATORIO ESTERIL 30X35 - PCT 5 UND</t>
+    <t>1586</t>
+  </si>
+  <si>
+    <t>CAMPO OPERATORIO NAO ESTERIL 45X50 - PCT 50</t>
   </si>
   <si>
     <t>155</t>
@@ -246,40 +264,46 @@
     <t>132</t>
   </si>
   <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>GAZE CIRCULAR NAO ESTERIL 09 FIOS I</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>GAZE CIRCULAR NAO ESTERIL 09 FIOS O</t>
+    <t>1822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAZE CIRCULAR NAO ESTERIL 11 FIOS </t>
   </si>
   <si>
     <t>263</t>
   </si>
   <si>
-    <t xml:space="preserve">GAZE CIRCULAR NAO ESTERIL 11 FIOS </t>
-  </si>
-  <si>
     <t>359</t>
   </si>
   <si>
     <t>GAZE CIRCULAR NAO ESTERIL 13 FIOS</t>
   </si>
   <si>
-    <t>116</t>
+    <t>276</t>
+  </si>
+  <si>
+    <t>2010</t>
   </si>
   <si>
     <t xml:space="preserve">GAZE CIRCULAR NAO ESTERIL 13 FIOS </t>
   </si>
   <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>1819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAZE CIRCULAR NAO ESTERIL 13 FIOS  </t>
+  </si>
+  <si>
     <t>273</t>
   </si>
   <si>
-    <t xml:space="preserve">GAZE CIRCULAR NAO ESTERIL 13 FIOS  </t>
+    <t>299</t>
+  </si>
+  <si>
+    <t>GAZE CIRCULAR NAO ESTERIL 13 FIOS CA</t>
   </si>
   <si>
     <t>300</t>
@@ -288,21 +312,42 @@
     <t>GAZE CIRCULAR NAO ESTERIL 13 FIOS D</t>
   </si>
   <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>GAZE CIRCULAR NAO ESTERIL 13 FIOS EA</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>GAZE CIRCULAR NAO ESTERIL 13 FIOS GA</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>GAZE CIRCULAR NAO ESTERIL 13 FIOS JA</t>
+  </si>
+  <si>
     <t xml:space="preserve">GAZE ESTÉRIL 09 FIOS - PCT 10 UND </t>
   </si>
   <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAZE ESTERIL 11 FIOS PCT 10 UND </t>
+  </si>
+  <si>
     <t xml:space="preserve">GAZE ESTÉRIL 11FIOS - PCT 10 UND </t>
   </si>
   <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>GAZE ESTÉRIL 13FIOS - CONVIVA - PCT 10 UND</t>
-  </si>
-  <si>
     <t xml:space="preserve">GAZE ESTÉRIL 13FIOS - PCT 10 UND </t>
   </si>
   <si>
+    <t>1643</t>
+  </si>
+  <si>
     <t>08</t>
   </si>
   <si>
@@ -315,46 +360,19 @@
     <t>GAZE NAO ESTÉRIL 09 FIOS - PCT 500 UND</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>GAZE NAO ESTÉRIL 09 FIOS F</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>GAZE NAO ESTÉRIL 09 FIOS I</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAZE NAO ESTÉRIL 11 FIOS </t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>GAZE NAO ESTÉRIL 11 FIOS B</t>
-  </si>
-  <si>
     <t>339</t>
   </si>
   <si>
     <t>GAZE NAO ESTÉRIL 11 FIOS BA - PCT 500 UND</t>
   </si>
   <si>
-    <t>319</t>
-  </si>
-  <si>
-    <t>GAZE NAO ESTÉRIL 11 FIOS N</t>
-  </si>
-  <si>
-    <t>322</t>
+    <t>2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAZE NAO ESTERIL 13 FIOS </t>
+  </si>
+  <si>
+    <t>324</t>
   </si>
   <si>
     <t xml:space="preserve">GAZE NAO ESTÉRIL 13 FIOS </t>
@@ -369,22 +387,10 @@
     <t>GAZE NAO ESTÉRIL 13 FIOS  - PCT 500 UND</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>GAZE NAO ESTÉRIL 13 FIOS G</t>
-  </si>
-  <si>
     <t>329</t>
   </si>
   <si>
     <t>GAZE NAO ESTÉRIL 13 FIOS IA</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>GAZE NAO ESTÉRIL 13 FIOS JA</t>
   </si>
 </sst>
 </file>
@@ -545,7 +551,7 @@
   <sheetPr>
     <outlinePr summaryBelow="true" summaryRight="true"/>
   </sheetPr>
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showZeros="true" showFormulas="false" showGridLines="true" showRowColHeaders="true">
       <selection sqref="A1" activeCell="A1"/>
@@ -621,13 +627,13 @@
         <v>16</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1155.75</v>
+        <v>759</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>40</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>46230</v>
+        <v>30360</v>
       </c>
     </row>
     <row r="3" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -647,19 +653,19 @@
         <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>500</v>
+        <v>880</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>3.98</v>
+        <v>4.185</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>1990</v>
+        <v>3682.8</v>
       </c>
     </row>
     <row r="4" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -667,10 +673,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>19</v>
@@ -682,16 +688,16 @@
         <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3850</v>
+        <v>600</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.6229</v>
+        <v>3.98</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>13948</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="5" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -714,16 +720,16 @@
         <v>15</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>4112</v>
+        <v>1210</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>4.8771</v>
+        <v>3.85</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>20054.8</v>
+        <v>4658.5</v>
       </c>
     </row>
     <row r="6" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -746,16 +752,16 @@
         <v>15</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>6.05</v>
+        <v>4.57</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1040.6</v>
+        <v>914</v>
       </c>
     </row>
     <row r="7" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -778,16 +784,16 @@
         <v>15</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>270</v>
+        <v>1462</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>6.41</v>
+        <v>5.2006</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1730.7</v>
+        <v>7603.26</v>
       </c>
     </row>
     <row r="8" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -807,19 +813,19 @@
         <v>20</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>3010</v>
+        <v>200</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>4.4209</v>
+        <v>5.715</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>13306.78</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="9" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -839,19 +845,19 @@
         <v>20</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>400</v>
+        <v>602</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>7.92</v>
+        <v>4.76</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3168</v>
+        <v>2865.52</v>
       </c>
     </row>
     <row r="10" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -859,11 +865,11 @@
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D10" s="3" t="s">
         <v>19</v>
       </c>
@@ -874,16 +880,16 @@
         <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>1288</v>
+        <v>110</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>6.7394</v>
+        <v>4.91</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>8680.32</v>
+        <v>540.1</v>
       </c>
     </row>
     <row r="11" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -891,10 +897,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>19</v>
@@ -903,19 +909,19 @@
         <v>20</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>7210</v>
+        <v>880</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>5.3169</v>
+        <v>5.195</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>38334.8</v>
+        <v>4571.6</v>
       </c>
     </row>
     <row r="12" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -923,10 +929,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>19</v>
@@ -938,16 +944,16 @@
         <v>15</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12" s="4" t="n">
-        <v>60</v>
+        <v>1050</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>9.24</v>
+        <v>6.58</v>
       </c>
       <c r="J12" s="4" t="n">
-        <v>554.4</v>
+        <v>6909</v>
       </c>
     </row>
     <row r="13" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -955,10 +961,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>19</v>
@@ -967,19 +973,19 @@
         <v>20</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>3360</v>
+        <v>90</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>7.4156</v>
+        <v>7.62</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>24916.5</v>
+        <v>685.8</v>
       </c>
     </row>
     <row r="14" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -987,10 +993,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>19</v>
@@ -1002,16 +1008,16 @@
         <v>15</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H14" s="4" t="n">
-        <v>350</v>
+        <v>1610</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>4.61</v>
+        <v>5.47</v>
       </c>
       <c r="J14" s="4" t="n">
-        <v>1613.5</v>
+        <v>8806.7</v>
       </c>
     </row>
     <row r="15" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1019,10 +1025,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>19</v>
@@ -1031,19 +1037,19 @@
         <v>20</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4732</v>
+        <v>1260</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7.1327</v>
+        <v>5.8186</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>33752.16</v>
+        <v>7331.4</v>
       </c>
     </row>
     <row r="16" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1051,10 +1057,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>19</v>
@@ -1066,16 +1072,16 @@
         <v>15</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>2880</v>
+        <v>2430</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>9.104</v>
+        <v>5.5363</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>26219.4</v>
+        <v>13453.2</v>
       </c>
     </row>
     <row r="17" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1083,10 +1089,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>19</v>
@@ -1098,16 +1104,16 @@
         <v>15</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>250</v>
+        <v>1860</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>10.74</v>
+        <v>7.6629</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>2685</v>
+        <v>14253</v>
       </c>
     </row>
     <row r="18" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1115,10 +1121,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>19</v>
@@ -1130,16 +1136,16 @@
         <v>15</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>560</v>
+        <v>4647</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>14.89</v>
+        <v>7.454</v>
       </c>
       <c r="J18" s="4" t="n">
-        <v>8338.4</v>
+        <v>34638.96</v>
       </c>
     </row>
     <row r="19" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1147,10 +1153,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>19</v>
@@ -1159,19 +1165,19 @@
         <v>20</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>560</v>
+        <v>150</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>9.5786</v>
+        <v>8.425</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>5364.016</v>
+        <v>1263.75</v>
       </c>
     </row>
     <row r="20" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1179,10 +1185,10 @@
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>19</v>
@@ -1194,16 +1200,16 @@
         <v>15</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>350</v>
+        <v>2288</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>9.37</v>
+        <v>7.015</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>3279.5</v>
+        <v>16050.32</v>
       </c>
     </row>
     <row r="21" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1211,10 +1217,10 @@
         <v>10</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>19</v>
@@ -1223,19 +1229,19 @@
         <v>20</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>240</v>
+        <v>1050</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>12.03</v>
+        <v>7.5393</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2887.2</v>
+        <v>7916.3</v>
       </c>
     </row>
     <row r="22" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1243,10 +1249,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>19</v>
@@ -1258,16 +1264,16 @@
         <v>15</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H22" s="4" t="n">
-        <v>10200</v>
+        <v>1540</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>2.5</v>
+        <v>9.99</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>25500</v>
+        <v>15384.6</v>
       </c>
     </row>
     <row r="23" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1275,10 +1281,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>19</v>
@@ -1290,16 +1296,16 @@
         <v>15</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>27750</v>
+        <v>1900</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>4.6606</v>
+        <v>10.1685</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>129333</v>
+        <v>19320.1</v>
       </c>
     </row>
     <row r="24" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1307,10 +1313,10 @@
         <v>10</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>19</v>
@@ -1319,19 +1325,19 @@
         <v>20</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H24" s="4" t="n">
-        <v>1050</v>
+        <v>70</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>5.09</v>
+        <v>10.3</v>
       </c>
       <c r="J24" s="4" t="n">
-        <v>5344.5</v>
+        <v>721</v>
       </c>
     </row>
     <row r="25" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1339,10 +1345,10 @@
         <v>10</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>19</v>
@@ -1354,16 +1360,16 @@
         <v>15</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>1200</v>
+        <v>128</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>4.13</v>
+        <v>14.74</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>4956</v>
+        <v>1886.72</v>
       </c>
     </row>
     <row r="26" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1371,10 +1377,10 @@
         <v>10</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>19</v>
@@ -1383,19 +1389,17 @@
         <v>20</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>3084</v>
-      </c>
-      <c r="I26" s="4" t="n">
-        <v>43.4588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" s="4"/>
       <c r="J26" s="4" t="n">
-        <v>134026.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1403,10 +1407,10 @@
         <v>10</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>19</v>
@@ -1415,19 +1419,19 @@
         <v>20</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1512</v>
+        <v>23400</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>42.1286</v>
+        <v>4.8251</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>63698.4</v>
+        <v>112906.5</v>
       </c>
     </row>
     <row r="28" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1435,10 +1439,10 @@
         <v>10</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>19</v>
@@ -1447,19 +1451,19 @@
         <v>20</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H28" s="4" t="n">
-        <v>2016</v>
+        <v>28500</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>12.3</v>
+        <v>4.4529</v>
       </c>
       <c r="J28" s="4" t="n">
-        <v>24796.8</v>
+        <v>126907.5</v>
       </c>
     </row>
     <row r="29" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1467,10 +1471,10 @@
         <v>10</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>19</v>
@@ -1479,19 +1483,19 @@
         <v>20</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>2376</v>
+        <v>1056</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>13.8236</v>
+        <v>49.2805</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>32844.96</v>
+        <v>52040.16</v>
       </c>
     </row>
     <row r="30" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1499,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>75</v>
@@ -1514,16 +1518,16 @@
         <v>15</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H30" s="4" t="n">
-        <v>1000</v>
+        <v>5472</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>18.85</v>
+        <v>45.0622</v>
       </c>
       <c r="J30" s="4" t="n">
-        <v>18850</v>
+        <v>246580.32</v>
       </c>
     </row>
     <row r="31" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1531,11 +1535,11 @@
         <v>10</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="D31" s="5" t="s">
         <v>19</v>
       </c>
@@ -1543,19 +1547,19 @@
         <v>20</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>2040</v>
+        <v>12</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>14.5</v>
+        <v>48</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>29580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1563,11 +1567,11 @@
         <v>10</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="D32" s="3" t="s">
         <v>19</v>
       </c>
@@ -1575,19 +1579,19 @@
         <v>20</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H32" s="4" t="n">
-        <v>100</v>
+        <v>1224</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>24.64</v>
+        <v>9</v>
       </c>
       <c r="J32" s="4" t="n">
-        <v>2464</v>
+        <v>11016</v>
       </c>
     </row>
     <row r="33" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1595,11 +1599,11 @@
         <v>10</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="D33" s="5" t="s">
         <v>19</v>
       </c>
@@ -1607,19 +1611,19 @@
         <v>20</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1800</v>
+        <v>6120</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>18</v>
+        <v>13.2845</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>32400</v>
+        <v>81301.32</v>
       </c>
     </row>
     <row r="34" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1627,10 +1631,10 @@
         <v>10</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>19</v>
@@ -1639,19 +1643,19 @@
         <v>20</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H34" s="4" t="n">
-        <v>5004</v>
+        <v>320</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>11.99</v>
+        <v>27.9</v>
       </c>
       <c r="J34" s="4" t="n">
-        <v>59997.96</v>
+        <v>8928</v>
       </c>
     </row>
     <row r="35" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1659,10 +1663,10 @@
         <v>10</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>19</v>
@@ -1671,19 +1675,19 @@
         <v>20</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1500</v>
+        <v>320</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>13.5</v>
+        <v>28.5</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>20250</v>
+        <v>9120</v>
       </c>
     </row>
     <row r="36" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1691,10 +1695,10 @@
         <v>10</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>19</v>
@@ -1703,19 +1707,19 @@
         <v>20</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H36" s="4" t="n">
-        <v>1620</v>
+        <v>1440</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>15.4433</v>
+        <v>14.6513</v>
       </c>
       <c r="J36" s="4" t="n">
-        <v>25018.2</v>
+        <v>21097.8</v>
       </c>
     </row>
     <row r="37" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1723,10 +1727,10 @@
         <v>10</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>19</v>
@@ -1735,19 +1739,19 @@
         <v>20</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>20</v>
+        <v>1800</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>39.53</v>
+        <v>13</v>
       </c>
       <c r="J37" s="6" t="n">
-        <v>790.6</v>
+        <v>23400</v>
       </c>
     </row>
     <row r="38" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1755,10 +1759,10 @@
         <v>10</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>19</v>
@@ -1767,19 +1771,19 @@
         <v>20</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>229000</v>
+        <v>60</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>0.3548</v>
+        <v>15.67</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>81240</v>
+        <v>940.2</v>
       </c>
     </row>
     <row r="39" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1787,10 +1791,10 @@
         <v>10</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>19</v>
@@ -1799,19 +1803,19 @@
         <v>20</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>442000</v>
+        <v>50</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.379</v>
+        <v>19.85</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>167524</v>
+        <v>992.5</v>
       </c>
     </row>
     <row r="40" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1819,10 +1823,10 @@
         <v>10</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>19</v>
@@ -1831,19 +1835,19 @@
         <v>20</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>13000</v>
+        <v>300</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>0.49</v>
+        <v>51.3</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>6370</v>
+        <v>15390</v>
       </c>
     </row>
     <row r="41" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1851,10 +1855,10 @@
         <v>10</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>19</v>
@@ -1863,19 +1867,19 @@
         <v>20</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>676000</v>
+        <v>1620</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3744</v>
+        <v>15.4433</v>
       </c>
       <c r="J41" s="6" t="n">
-        <v>253120</v>
+        <v>25018.2</v>
       </c>
     </row>
     <row r="42" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1883,10 +1887,10 @@
         <v>10</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>19</v>
@@ -1895,19 +1899,19 @@
         <v>20</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>9792</v>
+        <v>1224</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>6.4043</v>
+        <v>13.9</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>62711.28</v>
+        <v>17013.6</v>
       </c>
     </row>
     <row r="43" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1915,10 +1919,10 @@
         <v>10</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>19</v>
@@ -1930,16 +1934,16 @@
         <v>15</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>1520</v>
+        <v>60</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>14.0263</v>
+        <v>23.88</v>
       </c>
       <c r="J43" s="6" t="n">
-        <v>21320</v>
+        <v>1432.8</v>
       </c>
     </row>
     <row r="44" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1947,10 +1951,10 @@
         <v>10</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>19</v>
@@ -1959,19 +1963,19 @@
         <v>20</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>-120</v>
+        <v>320</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>11.44</v>
+        <v>29</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>-1372.8</v>
+        <v>9280</v>
       </c>
     </row>
     <row r="45" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -1979,10 +1983,10 @@
         <v>10</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>19</v>
@@ -1991,19 +1995,19 @@
         <v>20</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>600</v>
+        <v>10020</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>10.4067</v>
+        <v>13.5</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>6244</v>
+        <v>135270</v>
       </c>
     </row>
     <row r="46" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -2011,10 +2015,10 @@
         <v>10</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>19</v>
@@ -2023,19 +2027,19 @@
         <v>20</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>10.32</v>
+        <v>19.88</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1238.4</v>
+        <v>4771.2</v>
       </c>
     </row>
     <row r="47" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -2043,10 +2047,10 @@
         <v>10</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>19</v>
@@ -2055,19 +2059,19 @@
         <v>20</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>300</v>
+        <v>5060</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>9.74</v>
+        <v>16.7258</v>
       </c>
       <c r="J47" s="6" t="n">
-        <v>2922</v>
+        <v>84632.8</v>
       </c>
     </row>
     <row r="48" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -2075,10 +2079,10 @@
         <v>10</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>19</v>
@@ -2087,19 +2091,19 @@
         <v>20</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>480</v>
+        <v>104000</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>15</v>
+        <v>0.3716</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>7200</v>
+        <v>38650</v>
       </c>
     </row>
     <row r="49" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -2107,10 +2111,10 @@
         <v>10</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>19</v>
@@ -2122,16 +2126,16 @@
         <v>15</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>32</v>
+        <v>40000</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>19.9</v>
+        <v>0.4171</v>
       </c>
       <c r="J49" s="6" t="n">
-        <v>636.8</v>
+        <v>16684</v>
       </c>
     </row>
     <row r="50" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -2139,10 +2143,10 @@
         <v>10</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>19</v>
@@ -2151,19 +2155,19 @@
         <v>20</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>120</v>
+        <v>567000</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>17.5</v>
+        <v>0.3713</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>2100</v>
+        <v>210516</v>
       </c>
     </row>
     <row r="51" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -2171,10 +2175,10 @@
         <v>10</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>19</v>
@@ -2183,19 +2187,19 @@
         <v>20</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1008</v>
+        <v>1720000</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>7.4</v>
+        <v>0.3345</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>7459.2</v>
+        <v>575420</v>
       </c>
     </row>
     <row r="52" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -2203,10 +2207,10 @@
         <v>10</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>19</v>
@@ -2215,19 +2219,19 @@
         <v>20</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>50</v>
+        <v>11000</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>12.56</v>
+        <v>0.6227</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>628</v>
+        <v>6850</v>
       </c>
     </row>
     <row r="53" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -2235,10 +2239,10 @@
         <v>10</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>19</v>
@@ -2247,19 +2251,19 @@
         <v>20</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>640</v>
+        <v>9792</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>17.849</v>
+        <v>6.924</v>
       </c>
       <c r="J53" s="6" t="n">
-        <v>11423.36</v>
+        <v>67799.52</v>
       </c>
     </row>
     <row r="54" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -2267,10 +2271,10 @@
         <v>10</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>19</v>
@@ -2282,16 +2286,16 @@
         <v>15</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>224</v>
+        <v>5400</v>
       </c>
       <c r="I54" s="4" t="n">
-        <v>13.1</v>
+        <v>14.626</v>
       </c>
       <c r="J54" s="4" t="n">
-        <v>2934.4</v>
+        <v>78980.4</v>
       </c>
     </row>
     <row r="55" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -2299,10 +2303,10 @@
         <v>10</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>19</v>
@@ -2311,19 +2315,19 @@
         <v>20</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>800</v>
+        <v>1152</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>13.2</v>
+        <v>16.9125</v>
       </c>
       <c r="J55" s="6" t="n">
-        <v>10560</v>
+        <v>19483.2</v>
       </c>
     </row>
     <row r="56" customHeight="true" ht="16.5" customFormat="true" s="1">
@@ -2331,49 +2335,177 @@
         <v>10</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="I56" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="J56" s="4" t="n">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="57" customHeight="true" ht="16.5" customFormat="true" s="1">
+      <c r="A57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" s="6" t="n">
+        <v>1020</v>
+      </c>
+      <c r="I57" s="6" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="J57" s="6" t="n">
+        <v>9027</v>
+      </c>
+    </row>
+    <row r="58" customHeight="true" ht="16.5" customFormat="true" s="1">
+      <c r="A58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" s="4" t="n">
+        <v>300</v>
+      </c>
+      <c r="I58" s="4" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="J58" s="4" t="n">
+        <v>3555</v>
+      </c>
+    </row>
+    <row r="59" customHeight="true" ht="16.5" customFormat="true" s="1">
+      <c r="A59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C59" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H56" s="4" t="n">
-        <v>2016</v>
-      </c>
-      <c r="I56" s="4" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="J56" s="4" t="n">
-        <v>14091.84</v>
-      </c>
-    </row>
-    <row r="57" customHeight="true" ht="13.5" customFormat="true" s="1">
-      <c r="A57" s="7"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="9" t="n">
-        <v>1475163.75</v>
-      </c>
-      <c r="I57" s="9" t="n">
-        <v>655.4275</v>
-      </c>
-      <c r="J57" s="9" t="n">
-        <v>1526295.776</v>
+      <c r="D59" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" s="6" t="n">
+        <v>3680</v>
+      </c>
+      <c r="I59" s="6" t="n">
+        <v>15.7219</v>
+      </c>
+      <c r="J59" s="6" t="n">
+        <v>57856.64</v>
+      </c>
+    </row>
+    <row r="60" customHeight="true" ht="16.5" customFormat="true" s="1">
+      <c r="A60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="I60" s="4" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="J60" s="4" t="n">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="61" customHeight="true" ht="13.5" customFormat="true" s="1">
+      <c r="A61" s="7"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="9" t="n">
+        <v>2579588</v>
+      </c>
+      <c r="I61" s="9" t="n">
+        <v>784.0124</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>2292895.29</v>
       </c>
     </row>
   </sheetData>
